--- a/data/gene_data.xlsx
+++ b/data/gene_data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Projects\R\AoP\data\extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mar\Dev\Projects\R\DE-AoP-23-test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A8C2F2-6CCD-4010-B594-008CFE763D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559BCFAD-2EC6-45B5-A275-591184BF1ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34826" yWindow="1440" windowWidth="30771" windowHeight="16003" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="1" r:id="rId1"/>
-    <sheet name="Diff" sheetId="2" r:id="rId2"/>
-    <sheet name="Vasc" sheetId="3" r:id="rId3"/>
+    <sheet name="ND" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="812">
   <si>
     <t>Pathway</t>
   </si>
@@ -2411,471 +2410,12 @@
     <t>CAGGCTGCTTGGAGCAAAA</t>
   </si>
   <si>
-    <t>Angiogenesis</t>
-  </si>
-  <si>
-    <t>Angpt1</t>
-  </si>
-  <si>
-    <t>angiopoietin 1</t>
-  </si>
-  <si>
-    <t>Secreted glycoprotein that belongs to the angiopoietin family of vascular growth factors.</t>
-  </si>
-  <si>
-    <t>NM_001286062.1 </t>
-  </si>
-  <si>
-    <t>GCATTCTTCGCTGCCATTCT</t>
-  </si>
-  <si>
-    <t>TCTCCCTCCGTTTTCTGGATT</t>
-  </si>
-  <si>
-    <t>Angpt2</t>
-  </si>
-  <si>
-    <t>angiopoietin 2</t>
-  </si>
-  <si>
-    <t>Endothelial cell-derived regulator of angiogenesis and ligand for endothelial-specific receptor tyrosine kinase.</t>
-  </si>
-  <si>
-    <t>NM_007426.4</t>
-  </si>
-  <si>
-    <t>GTCCAACTACAGGATTCACCTTACAG</t>
-  </si>
-  <si>
-    <t>GGAACACTTGCAGATGCATTTG</t>
-  </si>
-  <si>
-    <t>Anpep</t>
-  </si>
-  <si>
-    <t>alanyl (membrane) aminopeptidase</t>
-  </si>
-  <si>
-    <t>Metalloaminopeptidase activity; peptide binding activity; and zinc ion binding activity.</t>
-  </si>
-  <si>
-    <t>NM_008486.3</t>
-  </si>
-  <si>
-    <t>GTCGAGAAAAACCAGAGTGCAAA</t>
-  </si>
-  <si>
-    <t>GTAGCCGGTTACGTTAATGTTCAGT</t>
-  </si>
-  <si>
-    <t>Serpinf1</t>
-  </si>
-  <si>
-    <t>serine (or cysteine) peptidase inhibitor, clade F, member 1</t>
-  </si>
-  <si>
-    <t>Enables serine-type endopeptidase inhibitor activity.</t>
-  </si>
-  <si>
-    <t>NM_011340.3</t>
-  </si>
-  <si>
-    <t>AGGACATGAAGCTACAGTCGTTGTT</t>
-  </si>
-  <si>
-    <t>AGCAGCCCTGTGTTCCACTT</t>
-  </si>
-  <si>
-    <t>Tek</t>
-  </si>
-  <si>
-    <t>endothelial-specific receptor tyrosine kinase</t>
-  </si>
-  <si>
-    <t>Enables protein tyrosine kinase activity and signaling receptor activity.</t>
-  </si>
-  <si>
-    <t>NM_001290549.1</t>
-  </si>
-  <si>
-    <t>GCTTATTTCTGTGAAGGTCGAGTTC</t>
-  </si>
-  <si>
-    <t>GTAGCAGGTAGGAAGGATGCTTGT</t>
-  </si>
-  <si>
-    <t>Tie1</t>
-  </si>
-  <si>
-    <t>tyrosine kinase with immunoglobulin-like and EGF-like domains 1</t>
-  </si>
-  <si>
-    <t>Transmembrane receptor protein tyrosine kinase activity.</t>
-  </si>
-  <si>
-    <t>NM_011587.2</t>
-  </si>
-  <si>
-    <t>Cell Adhesion Molecules</t>
-  </si>
-  <si>
-    <t>Cdh5</t>
-  </si>
-  <si>
-    <t>cadherin 5</t>
-  </si>
-  <si>
-    <t>Member of the cadherin family of calcium-dependent glycoproteins that mediate cell adhesion and regulate many morphogenetic events during development.</t>
-  </si>
-  <si>
-    <t>NM_009868.4</t>
-  </si>
-  <si>
-    <t>CAGCGACACTTCTACCACTTCAAG</t>
-  </si>
-  <si>
-    <t>ATTCGGAAGAATTGGCCTCTGT</t>
-  </si>
-  <si>
-    <t>Thbs1</t>
-  </si>
-  <si>
-    <t>thrombospondin 1</t>
-  </si>
-  <si>
-    <t>Subunit of a disulfide-linked homotrimeric adhesive glycoprotein that mediates cell-to-cell and cell-to-matrix interactions.</t>
-  </si>
-  <si>
-    <t>NM_011580.4 </t>
-  </si>
-  <si>
-    <t>GCTGACTCGGGACCCATCTA</t>
-  </si>
-  <si>
-    <t>GCTGATGATTAGGAATCTCGACACT</t>
-  </si>
-  <si>
-    <t>Coagulation cascade</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>coagulation factor III</t>
-  </si>
-  <si>
-    <t>Membrane-bound glycoprotein that forms the primary physiological initiator of the blood coagulation process following vascular damage.</t>
-  </si>
-  <si>
-    <t>NM_010171.3</t>
-  </si>
-  <si>
-    <t>TTTACCTTACCGAGACACAAACCTT</t>
-  </si>
-  <si>
-    <t>GTGAGTCTTTTACAACCACGTTCAGT</t>
-  </si>
-  <si>
-    <t>Serpine1</t>
-  </si>
-  <si>
-    <t>serine (or cysteine) peptidase inhibitor, clade E, member 1</t>
-  </si>
-  <si>
-    <t>NM_008871.2</t>
-  </si>
-  <si>
-    <t>AGGATCGAGGTAAACGAGAGC</t>
-  </si>
-  <si>
-    <t>GCGGGCTGAGATGACAAA</t>
-  </si>
-  <si>
-    <t>Extracellular Matrix</t>
-  </si>
-  <si>
-    <t>Col1a1</t>
-  </si>
-  <si>
-    <t>collagen, type I, alpha 1</t>
-  </si>
-  <si>
-    <t>Alpha-1 subunit of the fibril-forming type I collagen, the most abundant protein of bone, skin and tendon extracellular matrices.</t>
-  </si>
-  <si>
-    <t>NM_007742.3</t>
-  </si>
-  <si>
-    <t>CTGACTGGAAGAGCGGAGAGTACT</t>
-  </si>
-  <si>
-    <t>TCGGGCTGATGTACCAGTTCT</t>
-  </si>
-  <si>
-    <t>Mmp2</t>
-  </si>
-  <si>
-    <t>matrix metallopeptidase 2</t>
-  </si>
-  <si>
-    <t>Matrix metalloproteinase family of extracellular matrix-degrading enzymes that are involved in tissue remodeling, wound repair, progression of atherosclerosis and tumor invasion.</t>
-  </si>
-  <si>
-    <t>NM_008610.3</t>
-  </si>
-  <si>
-    <t>TGGGGGAGATTCTCACTTTG</t>
-  </si>
-  <si>
-    <t>ACTTTACGCGGACCACTTGT</t>
-  </si>
-  <si>
-    <t>Mmp9</t>
-  </si>
-  <si>
-    <t>matrix metallopeptidase 9</t>
-  </si>
-  <si>
-    <t>NM_013599.4 </t>
-  </si>
-  <si>
-    <t>CGTGTCTGGAGATTCGACTTGA</t>
-  </si>
-  <si>
-    <t>TGGTACTGGAAGATGTCGTGTGA</t>
-  </si>
-  <si>
-    <t>Ndp</t>
-  </si>
-  <si>
-    <t>Norrie disease (pseudoglioma) (human)</t>
-  </si>
-  <si>
-    <t>Secreted protein that acts a ligand for multiple different receptors and participates in both Wnt and Wnt-independant signalling.</t>
-  </si>
-  <si>
-    <t>NM_010883.3 </t>
-  </si>
-  <si>
-    <t>ACGCTGCATGAGACACCATTAT</t>
-  </si>
-  <si>
-    <t>AGCACCATCTTTGAGCTACATTTG</t>
-  </si>
-  <si>
-    <t>Timp1</t>
-  </si>
-  <si>
-    <t>tissue inhibitor of metalloproteinase 1</t>
-  </si>
-  <si>
-    <t>Cytokine activity; metalloendopeptidase inhibitor activity; and zinc ion binding activity.</t>
-  </si>
-  <si>
-    <t>NM_011593.2</t>
-  </si>
-  <si>
-    <t>GCAAAGAGCTTTCTCAAAGACC</t>
-  </si>
-  <si>
-    <t>AGGGATAGATAAACAGGGAAACACT</t>
-  </si>
-  <si>
-    <t>Growth Factors &amp; Receptors</t>
-  </si>
-  <si>
-    <t>Fgf2</t>
-  </si>
-  <si>
-    <t>fibroblast growth factor 2</t>
-  </si>
-  <si>
-    <t>Growth factor activity.</t>
-  </si>
-  <si>
-    <t>NM_008006.2</t>
-  </si>
-  <si>
-    <t>GACCCACACGTCAAACTACAACTC</t>
-  </si>
-  <si>
-    <t>TGGCACACACTCCCTTGATAGA</t>
-  </si>
-  <si>
-    <t>Flk1 (Kdr)</t>
-  </si>
-  <si>
-    <t>kinase insert domain protein receptor</t>
-  </si>
-  <si>
-    <t>Growth factor binding activity and vascular endothelial growth factor-activated receptor activity.</t>
-  </si>
-  <si>
-    <t>NM_001363216.1 </t>
-  </si>
-  <si>
-    <t>TGAATGTCCCACCCCAGATC</t>
-  </si>
-  <si>
-    <t>GCATGTCAATGTCTGCATGGT</t>
-  </si>
-  <si>
-    <t>Flt1</t>
-  </si>
-  <si>
-    <t>FMS-like tyrosine kinase 1</t>
-  </si>
-  <si>
-    <t>Identical protein binding activity and vascular endothelial growth factor-activated receptor activity.</t>
-  </si>
-  <si>
-    <t>NM_010228.3 </t>
-  </si>
-  <si>
-    <t>ATCGGCAGACCAATACAATCCTA</t>
-  </si>
-  <si>
-    <t>AGGGTAATTCCAGCTCATTTGC</t>
-  </si>
-  <si>
-    <t>Lect1 (Cnmd)</t>
-  </si>
-  <si>
-    <t>chondromodulin</t>
-  </si>
-  <si>
-    <t>Endothelial cell morphogenesis; negative regulation of endothelial cell proliferation; and negative regulation of vascular endothelial growth factor receptor signaling pathway.</t>
-  </si>
-  <si>
-    <t>NM_001310655.1</t>
-  </si>
-  <si>
-    <t>GAGGAGAGAAGTGCTACATCAAAGC</t>
-  </si>
-  <si>
-    <t>GATCTTGCCTTCCAGTTCAGAGAT</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>neuropilin 1</t>
-  </si>
-  <si>
-    <t>Protein kinase binding activity; transmembrane signaling receptor activity; and vascular endothelial growth factor binding activity.</t>
-  </si>
-  <si>
-    <t>NM_008737.2 </t>
-  </si>
-  <si>
-    <t>CGCAAGGCTAAGTCGTTCGA</t>
-  </si>
-  <si>
-    <t>ATCCTGATGAACCTTGTGGAGAGA</t>
-  </si>
-  <si>
-    <t>Pgf</t>
-  </si>
-  <si>
-    <t>placental growth factor</t>
-  </si>
-  <si>
-    <t>Identical protein binding activity; receptor ligand activity; and vascular endothelial growth factor receptor binding activity.</t>
-  </si>
-  <si>
-    <t>NM_008827.3</t>
-  </si>
-  <si>
-    <t>TCTCAGGATGTGCTCTGTGAATG</t>
-  </si>
-  <si>
-    <t>GGTTCCTCAGTCTGTGAGTTTCTACTC</t>
-  </si>
-  <si>
-    <t>Tgfb1</t>
-  </si>
-  <si>
-    <t>transforming growth factor, beta 1</t>
-  </si>
-  <si>
-    <t>Secreted ligand of the TGF-beta (transforming growth factor-beta) superfamily of proteins.</t>
-  </si>
-  <si>
-    <t>NM_011577.2 </t>
-  </si>
-  <si>
-    <t>TGGAGCAACATGTGGAACTC</t>
-  </si>
-  <si>
-    <t>CAGCAGCCGGTTACCAAG</t>
-  </si>
-  <si>
-    <t>Vegfa</t>
-  </si>
-  <si>
-    <t>vascular endothelial growth factor A</t>
-  </si>
-  <si>
-    <t>Member of the PDGF/VEGF growth factor family.</t>
-  </si>
-  <si>
-    <t>NM_009505.4</t>
-  </si>
-  <si>
-    <t>GCAGCTTGAGTTAAACGAACG</t>
-  </si>
-  <si>
-    <t>GGTTCCCGAAACCCTGAG</t>
-  </si>
-  <si>
     <t>Effect</t>
   </si>
   <si>
     <t>Figure</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>10.1016/j.neuint.2007.02.003, 10.1093/cercor/bhaa413</t>
-  </si>
-  <si>
-    <t>10.1515/hsz-2016-0312, 10.1242/jcs.03199</t>
-  </si>
-  <si>
-    <t>10.1152/ajpregu.00008.2015, 10.1038/nature20555</t>
-  </si>
-  <si>
-    <t>10.1091/mbc.E10-04-0312, 10.1080/15548627.2021.1909406</t>
-  </si>
-  <si>
-    <t>10.1128/MCB.01034-14, 10.1016/j.expneurol.2023.114347</t>
-  </si>
-  <si>
-    <t>10.1016/j.dnarep.2004.03.035, 10.1128/MCB.22.6.1834-1843.2002</t>
-  </si>
-  <si>
-    <t>10.1080/15548627.2021.1909406, 10.1007/s11011-022-00948-z</t>
-  </si>
-  <si>
-    <t>10.3389/fncel.2019.00446, 10.1016/j.ejphar.2018.04.008</t>
-  </si>
-  <si>
-    <t>10.1080/15548627.2019.1644076, 10.1016/j.taap.2018.09.014</t>
-  </si>
-  <si>
-    <t>10.1016/j.bbrc.2013.12.113, 10.1007/s12192-020-01104-1</t>
-  </si>
-  <si>
-    <t>10.1016/j.cmet.2020.05.019, 10.1007/s13311-020-00929-z</t>
-  </si>
-  <si>
     <t>Redox Enzymes</t>
   </si>
   <si>
@@ -2916,6 +2456,12 @@
   </si>
   <si>
     <t>Neurite Growth</t>
+  </si>
+  <si>
+    <t>Deleterious</t>
+  </si>
+  <si>
+    <t>Beneficial</t>
   </si>
 </sst>
 </file>
@@ -2939,7 +2485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2949,66 +2495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3025,21 +2511,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3322,27 +2796,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.4609375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.69140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.15234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="56.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3356,7 +2829,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>933</v>
+        <v>794</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -3368,15 +2841,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>951</v>
+        <v>798</v>
       </c>
       <c r="B2" t="s">
         <v>373</v>
@@ -3388,7 +2858,7 @@
         <v>375</v>
       </c>
       <c r="E2" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F2" t="s">
         <v>376</v>
@@ -3400,12 +2870,12 @@
         <v>175</v>
       </c>
       <c r="I2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>951</v>
+        <v>798</v>
       </c>
       <c r="B3" t="s">
         <v>367</v>
@@ -3417,7 +2887,7 @@
         <v>369</v>
       </c>
       <c r="E3" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F3" t="s">
         <v>370</v>
@@ -3429,12 +2899,12 @@
         <v>372</v>
       </c>
       <c r="I3" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>951</v>
+        <v>798</v>
       </c>
       <c r="B4" t="s">
         <v>351</v>
@@ -3446,7 +2916,7 @@
         <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F4" t="s">
         <v>354</v>
@@ -3458,12 +2928,12 @@
         <v>356</v>
       </c>
       <c r="I4" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>951</v>
+        <v>798</v>
       </c>
       <c r="B5" t="s">
         <v>357</v>
@@ -3475,7 +2945,7 @@
         <v>353</v>
       </c>
       <c r="E5" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F5" t="s">
         <v>359</v>
@@ -3487,12 +2957,12 @@
         <v>361</v>
       </c>
       <c r="I5" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>951</v>
+        <v>798</v>
       </c>
       <c r="B6" t="s">
         <v>362</v>
@@ -3504,7 +2974,7 @@
         <v>353</v>
       </c>
       <c r="E6" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F6" t="s">
         <v>364</v>
@@ -3516,12 +2986,12 @@
         <v>366</v>
       </c>
       <c r="I6" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>951</v>
+        <v>798</v>
       </c>
       <c r="B7" t="s">
         <v>333</v>
@@ -3533,7 +3003,7 @@
         <v>335</v>
       </c>
       <c r="E7" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F7" t="s">
         <v>336</v>
@@ -3545,12 +3015,12 @@
         <v>338</v>
       </c>
       <c r="I7" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>951</v>
+        <v>798</v>
       </c>
       <c r="B8" t="s">
         <v>339</v>
@@ -3562,7 +3032,7 @@
         <v>341</v>
       </c>
       <c r="E8" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F8" t="s">
         <v>342</v>
@@ -3574,12 +3044,12 @@
         <v>344</v>
       </c>
       <c r="I8" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>951</v>
+        <v>798</v>
       </c>
       <c r="B9" t="s">
         <v>345</v>
@@ -3591,7 +3061,7 @@
         <v>347</v>
       </c>
       <c r="E9" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F9" t="s">
         <v>348</v>
@@ -3603,12 +3073,12 @@
         <v>350</v>
       </c>
       <c r="I9" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>952</v>
+        <v>799</v>
       </c>
       <c r="B10" t="s">
         <v>411</v>
@@ -3620,7 +3090,7 @@
         <v>413</v>
       </c>
       <c r="E10" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F10" t="s">
         <v>414</v>
@@ -3632,12 +3102,12 @@
         <v>416</v>
       </c>
       <c r="I10" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>952</v>
+        <v>799</v>
       </c>
       <c r="B11" t="s">
         <v>405</v>
@@ -3649,7 +3119,7 @@
         <v>407</v>
       </c>
       <c r="E11" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F11" t="s">
         <v>408</v>
@@ -3661,15 +3131,12 @@
         <v>410</v>
       </c>
       <c r="I11" t="s">
-        <v>955</v>
-      </c>
-      <c r="J11" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B12" t="s">
         <v>388</v>
@@ -3681,7 +3148,7 @@
         <v>390</v>
       </c>
       <c r="E12" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F12" t="s">
         <v>391</v>
@@ -3693,15 +3160,12 @@
         <v>393</v>
       </c>
       <c r="I12" t="s">
-        <v>955</v>
-      </c>
-      <c r="J12" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B13" t="s">
         <v>377</v>
@@ -3713,7 +3177,7 @@
         <v>379</v>
       </c>
       <c r="E13" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F13" t="s">
         <v>380</v>
@@ -3725,15 +3189,12 @@
         <v>382</v>
       </c>
       <c r="I13" t="s">
-        <v>955</v>
-      </c>
-      <c r="J13" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B14" t="s">
         <v>383</v>
@@ -3745,7 +3206,7 @@
         <v>379</v>
       </c>
       <c r="E14" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F14" t="s">
         <v>385</v>
@@ -3757,12 +3218,12 @@
         <v>387</v>
       </c>
       <c r="I14" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B15" t="s">
         <v>394</v>
@@ -3774,7 +3235,7 @@
         <v>369</v>
       </c>
       <c r="E15" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F15" t="s">
         <v>396</v>
@@ -3786,12 +3247,12 @@
         <v>398</v>
       </c>
       <c r="I15" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B16" t="s">
         <v>399</v>
@@ -3803,7 +3264,7 @@
         <v>401</v>
       </c>
       <c r="E16" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F16" t="s">
         <v>402</v>
@@ -3815,12 +3276,12 @@
         <v>404</v>
       </c>
       <c r="I16" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B17" t="s">
         <v>514</v>
@@ -3832,7 +3293,7 @@
         <v>516</v>
       </c>
       <c r="E17" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F17" t="s">
         <v>517</v>
@@ -3844,12 +3305,12 @@
         <v>519</v>
       </c>
       <c r="I17" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B18" t="s">
         <v>496</v>
@@ -3861,7 +3322,7 @@
         <v>498</v>
       </c>
       <c r="E18" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F18" t="s">
         <v>499</v>
@@ -3873,15 +3334,12 @@
         <v>501</v>
       </c>
       <c r="I18" t="s">
-        <v>955</v>
-      </c>
-      <c r="J18" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B19" t="s">
         <v>520</v>
@@ -3893,7 +3351,7 @@
         <v>522</v>
       </c>
       <c r="E19" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F19" t="s">
         <v>523</v>
@@ -3905,12 +3363,12 @@
         <v>525</v>
       </c>
       <c r="I19" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B20" t="s">
         <v>508</v>
@@ -3922,7 +3380,7 @@
         <v>510</v>
       </c>
       <c r="E20" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F20" t="s">
         <v>511</v>
@@ -3934,12 +3392,12 @@
         <v>513</v>
       </c>
       <c r="I20" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B21" t="s">
         <v>502</v>
@@ -3951,7 +3409,7 @@
         <v>504</v>
       </c>
       <c r="E21" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F21" t="s">
         <v>505</v>
@@ -3963,12 +3421,12 @@
         <v>507</v>
       </c>
       <c r="I21" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>951</v>
+        <v>798</v>
       </c>
       <c r="B22" t="s">
         <v>461</v>
@@ -3980,7 +3438,7 @@
         <v>463</v>
       </c>
       <c r="E22" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F22" t="s">
         <v>464</v>
@@ -3992,12 +3450,12 @@
         <v>466</v>
       </c>
       <c r="I22" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>952</v>
+        <v>799</v>
       </c>
       <c r="B23" t="s">
         <v>434</v>
@@ -4009,7 +3467,7 @@
         <v>379</v>
       </c>
       <c r="E23" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F23" t="s">
         <v>436</v>
@@ -4021,15 +3479,12 @@
         <v>438</v>
       </c>
       <c r="I23" t="s">
-        <v>955</v>
-      </c>
-      <c r="J23" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>952</v>
+        <v>799</v>
       </c>
       <c r="B24" t="s">
         <v>456</v>
@@ -4041,7 +3496,7 @@
         <v>379</v>
       </c>
       <c r="E24" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F24" t="s">
         <v>458</v>
@@ -4053,12 +3508,12 @@
         <v>460</v>
       </c>
       <c r="I24" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>952</v>
+        <v>799</v>
       </c>
       <c r="B25" t="s">
         <v>428</v>
@@ -4070,7 +3525,7 @@
         <v>430</v>
       </c>
       <c r="E25" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F25" t="s">
         <v>431</v>
@@ -4082,12 +3537,12 @@
         <v>433</v>
       </c>
       <c r="I25" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>952</v>
+        <v>799</v>
       </c>
       <c r="B26" t="s">
         <v>445</v>
@@ -4099,7 +3554,7 @@
         <v>447</v>
       </c>
       <c r="E26" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F26" t="s">
         <v>448</v>
@@ -4111,12 +3566,12 @@
         <v>450</v>
       </c>
       <c r="I26" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>952</v>
+        <v>799</v>
       </c>
       <c r="B27" t="s">
         <v>439</v>
@@ -4128,7 +3583,7 @@
         <v>441</v>
       </c>
       <c r="E27" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F27" t="s">
         <v>442</v>
@@ -4140,15 +3595,12 @@
         <v>444</v>
       </c>
       <c r="I27" t="s">
-        <v>955</v>
-      </c>
-      <c r="J27" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>952</v>
+        <v>799</v>
       </c>
       <c r="B28" t="s">
         <v>451</v>
@@ -4160,7 +3612,7 @@
         <v>401</v>
       </c>
       <c r="E28" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F28" t="s">
         <v>453</v>
@@ -4172,12 +3624,12 @@
         <v>455</v>
       </c>
       <c r="I28" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B29" t="s">
         <v>467</v>
@@ -4189,7 +3641,7 @@
         <v>469</v>
       </c>
       <c r="E29" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F29" t="s">
         <v>470</v>
@@ -4201,12 +3653,12 @@
         <v>472</v>
       </c>
       <c r="I29" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B30" t="s">
         <v>473</v>
@@ -4218,7 +3670,7 @@
         <v>475</v>
       </c>
       <c r="E30" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F30" t="s">
         <v>476</v>
@@ -4230,12 +3682,12 @@
         <v>478</v>
       </c>
       <c r="I30" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B31" t="s">
         <v>490</v>
@@ -4247,7 +3699,7 @@
         <v>492</v>
       </c>
       <c r="E31" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F31" t="s">
         <v>493</v>
@@ -4259,12 +3711,12 @@
         <v>495</v>
       </c>
       <c r="I31" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B32" t="s">
         <v>479</v>
@@ -4276,7 +3728,7 @@
         <v>481</v>
       </c>
       <c r="E32" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F32" t="s">
         <v>482</v>
@@ -4288,12 +3740,12 @@
         <v>484</v>
       </c>
       <c r="I32" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B33" t="s">
         <v>485</v>
@@ -4305,7 +3757,7 @@
         <v>481</v>
       </c>
       <c r="E33" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F33" t="s">
         <v>487</v>
@@ -4317,12 +3769,12 @@
         <v>489</v>
       </c>
       <c r="I33" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B34" t="s">
         <v>526</v>
@@ -4334,7 +3786,7 @@
         <v>469</v>
       </c>
       <c r="E34" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F34" t="s">
         <v>528</v>
@@ -4346,12 +3798,12 @@
         <v>530</v>
       </c>
       <c r="I34" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B35" t="s">
         <v>573</v>
@@ -4363,7 +3815,7 @@
         <v>575</v>
       </c>
       <c r="E35" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F35" t="s">
         <v>576</v>
@@ -4375,12 +3827,12 @@
         <v>578</v>
       </c>
       <c r="I35" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B36" t="s">
         <v>553</v>
@@ -4392,7 +3844,7 @@
         <v>379</v>
       </c>
       <c r="E36" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F36" t="s">
         <v>555</v>
@@ -4404,12 +3856,12 @@
         <v>557</v>
       </c>
       <c r="I36" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B37" t="s">
         <v>558</v>
@@ -4421,7 +3873,7 @@
         <v>379</v>
       </c>
       <c r="E37" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F37" t="s">
         <v>560</v>
@@ -4433,12 +3885,12 @@
         <v>562</v>
       </c>
       <c r="I37" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B38" t="s">
         <v>563</v>
@@ -4450,7 +3902,7 @@
         <v>379</v>
       </c>
       <c r="E38" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F38" t="s">
         <v>565</v>
@@ -4462,12 +3914,12 @@
         <v>567</v>
       </c>
       <c r="I38" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B39" t="s">
         <v>531</v>
@@ -4479,7 +3931,7 @@
         <v>533</v>
       </c>
       <c r="E39" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F39" t="s">
         <v>534</v>
@@ -4491,12 +3943,12 @@
         <v>536</v>
       </c>
       <c r="I39" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B40" t="s">
         <v>584</v>
@@ -4508,7 +3960,7 @@
         <v>586</v>
       </c>
       <c r="E40" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F40" t="s">
         <v>587</v>
@@ -4520,15 +3972,12 @@
         <v>589</v>
       </c>
       <c r="I40" t="s">
-        <v>955</v>
-      </c>
-      <c r="J40" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B41" t="s">
         <v>548</v>
@@ -4540,7 +3989,7 @@
         <v>510</v>
       </c>
       <c r="E41" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F41" t="s">
         <v>550</v>
@@ -4552,12 +4001,12 @@
         <v>552</v>
       </c>
       <c r="I41" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B42" t="s">
         <v>537</v>
@@ -4569,7 +4018,7 @@
         <v>401</v>
       </c>
       <c r="E42" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F42" t="s">
         <v>539</v>
@@ -4581,12 +4030,12 @@
         <v>541</v>
       </c>
       <c r="I42" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B43" t="s">
         <v>568</v>
@@ -4598,7 +4047,7 @@
         <v>401</v>
       </c>
       <c r="E43" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F43" t="s">
         <v>570</v>
@@ -4610,15 +4059,12 @@
         <v>572</v>
       </c>
       <c r="I43" t="s">
-        <v>955</v>
-      </c>
-      <c r="J43" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B44" t="s">
         <v>579</v>
@@ -4630,7 +4076,7 @@
         <v>401</v>
       </c>
       <c r="E44" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F44" t="s">
         <v>581</v>
@@ -4642,12 +4088,12 @@
         <v>583</v>
       </c>
       <c r="I44" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>953</v>
+        <v>800</v>
       </c>
       <c r="B45" t="s">
         <v>542</v>
@@ -4659,7 +4105,7 @@
         <v>544</v>
       </c>
       <c r="E45" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F45" t="s">
         <v>545</v>
@@ -4671,12 +4117,12 @@
         <v>547</v>
       </c>
       <c r="I45" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B46" t="s">
         <v>417</v>
@@ -4688,7 +4134,7 @@
         <v>379</v>
       </c>
       <c r="E46" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F46" t="s">
         <v>419</v>
@@ -4700,12 +4146,12 @@
         <v>421</v>
       </c>
       <c r="I46" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>950</v>
+        <v>797</v>
       </c>
       <c r="B47" t="s">
         <v>422</v>
@@ -4717,7 +4163,7 @@
         <v>424</v>
       </c>
       <c r="E47" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F47" t="s">
         <v>425</v>
@@ -4729,10 +4175,10 @@
         <v>427</v>
       </c>
       <c r="I47" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>590</v>
       </c>
@@ -4746,7 +4192,7 @@
         <v>379</v>
       </c>
       <c r="E48" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F48" t="s">
         <v>605</v>
@@ -4758,10 +4204,10 @@
         <v>607</v>
       </c>
       <c r="I48" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>590</v>
       </c>
@@ -4775,7 +4221,7 @@
         <v>599</v>
       </c>
       <c r="E49" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F49" t="s">
         <v>600</v>
@@ -4787,10 +4233,10 @@
         <v>602</v>
       </c>
       <c r="I49" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>590</v>
       </c>
@@ -4804,7 +4250,7 @@
         <v>593</v>
       </c>
       <c r="E50" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F50" t="s">
         <v>594</v>
@@ -4816,10 +4262,10 @@
         <v>596</v>
       </c>
       <c r="I50" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>590</v>
       </c>
@@ -4833,7 +4279,7 @@
         <v>632</v>
       </c>
       <c r="E51" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F51" t="s">
         <v>633</v>
@@ -4845,13 +4291,10 @@
         <v>634</v>
       </c>
       <c r="I51" t="s">
-        <v>954</v>
-      </c>
-      <c r="J51" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>590</v>
       </c>
@@ -4865,7 +4308,7 @@
         <v>626</v>
       </c>
       <c r="E52" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F52" t="s">
         <v>627</v>
@@ -4877,10 +4320,10 @@
         <v>629</v>
       </c>
       <c r="I52" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>590</v>
       </c>
@@ -4894,7 +4337,7 @@
         <v>441</v>
       </c>
       <c r="E53" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F53" t="s">
         <v>621</v>
@@ -4906,13 +4349,10 @@
         <v>623</v>
       </c>
       <c r="I53" t="s">
-        <v>954</v>
-      </c>
-      <c r="J53" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>590</v>
       </c>
@@ -4926,7 +4366,7 @@
         <v>615</v>
       </c>
       <c r="E54" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F54" t="s">
         <v>616</v>
@@ -4938,10 +4378,10 @@
         <v>618</v>
       </c>
       <c r="I54" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>590</v>
       </c>
@@ -4955,7 +4395,7 @@
         <v>401</v>
       </c>
       <c r="E55" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F55" t="s">
         <v>610</v>
@@ -4967,15 +4407,12 @@
         <v>612</v>
       </c>
       <c r="I55" t="s">
-        <v>954</v>
-      </c>
-      <c r="J55" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B56" t="s">
         <v>732</v>
@@ -4987,7 +4424,7 @@
         <v>734</v>
       </c>
       <c r="E56" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F56" t="s">
         <v>735</v>
@@ -4999,12 +4436,12 @@
         <v>737</v>
       </c>
       <c r="I56" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B57" t="s">
         <v>743</v>
@@ -5016,7 +4453,7 @@
         <v>745</v>
       </c>
       <c r="E57" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F57" t="s">
         <v>746</v>
@@ -5028,12 +4465,12 @@
         <v>748</v>
       </c>
       <c r="I57" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B58" t="s">
         <v>749</v>
@@ -5045,7 +4482,7 @@
         <v>745</v>
       </c>
       <c r="E58" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F58" t="s">
         <v>751</v>
@@ -5057,12 +4494,12 @@
         <v>753</v>
       </c>
       <c r="I58" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B59" t="s">
         <v>754</v>
@@ -5074,7 +4511,7 @@
         <v>745</v>
       </c>
       <c r="E59" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F59" t="s">
         <v>756</v>
@@ -5086,12 +4523,12 @@
         <v>758</v>
       </c>
       <c r="I59" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B60" t="s">
         <v>759</v>
@@ -5103,7 +4540,7 @@
         <v>745</v>
       </c>
       <c r="E60" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F60" t="s">
         <v>761</v>
@@ -5115,12 +4552,12 @@
         <v>763</v>
       </c>
       <c r="I60" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B61" t="s">
         <v>716</v>
@@ -5132,7 +4569,7 @@
         <v>718</v>
       </c>
       <c r="E61" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F61" t="s">
         <v>719</v>
@@ -5144,12 +4581,12 @@
         <v>721</v>
       </c>
       <c r="I61" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B62" t="s">
         <v>722</v>
@@ -5161,7 +4598,7 @@
         <v>718</v>
       </c>
       <c r="E62" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F62" t="s">
         <v>724</v>
@@ -5173,12 +4610,12 @@
         <v>726</v>
       </c>
       <c r="I62" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B63" t="s">
         <v>727</v>
@@ -5190,7 +4627,7 @@
         <v>718</v>
       </c>
       <c r="E63" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F63" t="s">
         <v>729</v>
@@ -5202,12 +4639,12 @@
         <v>731</v>
       </c>
       <c r="I63" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B64" t="s">
         <v>738</v>
@@ -5219,7 +4656,7 @@
         <v>718</v>
       </c>
       <c r="E64" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F64" t="s">
         <v>740</v>
@@ -5231,12 +4668,12 @@
         <v>742</v>
       </c>
       <c r="I64" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B65" t="s">
         <v>710</v>
@@ -5248,7 +4685,7 @@
         <v>712</v>
       </c>
       <c r="E65" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F65" t="s">
         <v>713</v>
@@ -5260,12 +4697,12 @@
         <v>715</v>
       </c>
       <c r="I65" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B66" t="s">
         <v>635</v>
@@ -5277,7 +4714,7 @@
         <v>637</v>
       </c>
       <c r="E66" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F66" t="s">
         <v>638</v>
@@ -5289,12 +4726,12 @@
         <v>640</v>
       </c>
       <c r="I66" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B67" t="s">
         <v>641</v>
@@ -5306,7 +4743,7 @@
         <v>637</v>
       </c>
       <c r="E67" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F67" t="s">
         <v>643</v>
@@ -5318,12 +4755,12 @@
         <v>645</v>
       </c>
       <c r="I67" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B68" t="s">
         <v>646</v>
@@ -5335,7 +4772,7 @@
         <v>637</v>
       </c>
       <c r="E68" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F68" t="s">
         <v>648</v>
@@ -5347,12 +4784,12 @@
         <v>650</v>
       </c>
       <c r="I68" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B69" t="s">
         <v>651</v>
@@ -5364,7 +4801,7 @@
         <v>637</v>
       </c>
       <c r="E69" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F69" t="s">
         <v>653</v>
@@ -5376,12 +4813,12 @@
         <v>655</v>
       </c>
       <c r="I69" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B70" t="s">
         <v>656</v>
@@ -5393,7 +4830,7 @@
         <v>637</v>
       </c>
       <c r="E70" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F70" t="s">
         <v>658</v>
@@ -5405,12 +4842,12 @@
         <v>660</v>
       </c>
       <c r="I70" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B71" t="s">
         <v>661</v>
@@ -5422,7 +4859,7 @@
         <v>637</v>
       </c>
       <c r="E71" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F71" t="s">
         <v>663</v>
@@ -5434,12 +4871,12 @@
         <v>665</v>
       </c>
       <c r="I71" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B72" t="s">
         <v>666</v>
@@ -5451,7 +4888,7 @@
         <v>637</v>
       </c>
       <c r="E72" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F72" t="s">
         <v>668</v>
@@ -5463,12 +4900,12 @@
         <v>670</v>
       </c>
       <c r="I72" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B73" t="s">
         <v>687</v>
@@ -5480,7 +4917,7 @@
         <v>689</v>
       </c>
       <c r="E73" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F73" t="s">
         <v>690</v>
@@ -5492,12 +4929,12 @@
         <v>692</v>
       </c>
       <c r="I73" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B74" t="s">
         <v>671</v>
@@ -5509,7 +4946,7 @@
         <v>673</v>
       </c>
       <c r="E74" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F74" t="s">
         <v>674</v>
@@ -5521,12 +4958,12 @@
         <v>676</v>
       </c>
       <c r="I74" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B75" t="s">
         <v>677</v>
@@ -5538,7 +4975,7 @@
         <v>673</v>
       </c>
       <c r="E75" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F75" t="s">
         <v>679</v>
@@ -5550,12 +4987,12 @@
         <v>681</v>
       </c>
       <c r="I75" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B76" t="s">
         <v>682</v>
@@ -5567,7 +5004,7 @@
         <v>673</v>
       </c>
       <c r="E76" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F76" t="s">
         <v>684</v>
@@ -5579,12 +5016,12 @@
         <v>686</v>
       </c>
       <c r="I76" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B77" t="s">
         <v>704</v>
@@ -5596,7 +5033,7 @@
         <v>706</v>
       </c>
       <c r="E77" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F77" t="s">
         <v>707</v>
@@ -5608,12 +5045,12 @@
         <v>709</v>
       </c>
       <c r="I77" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B78" t="s">
         <v>693</v>
@@ -5625,7 +5062,7 @@
         <v>695</v>
       </c>
       <c r="E78" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F78" t="s">
         <v>696</v>
@@ -5637,12 +5074,12 @@
         <v>698</v>
       </c>
       <c r="I78" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>949</v>
+        <v>796</v>
       </c>
       <c r="B79" t="s">
         <v>699</v>
@@ -5654,7 +5091,7 @@
         <v>695</v>
       </c>
       <c r="E79" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F79" t="s">
         <v>701</v>
@@ -5666,7 +5103,7 @@
         <v>703</v>
       </c>
       <c r="I79" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
@@ -5683,7 +5120,7 @@
         <v>773</v>
       </c>
       <c r="E80" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F80" t="s">
         <v>774</v>
@@ -5695,7 +5132,7 @@
         <v>776</v>
       </c>
       <c r="I80" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
@@ -5712,7 +5149,7 @@
         <v>784</v>
       </c>
       <c r="E81" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F81" t="s">
         <v>785</v>
@@ -5724,7 +5161,7 @@
         <v>787</v>
       </c>
       <c r="I81" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
@@ -5741,7 +5178,7 @@
         <v>767</v>
       </c>
       <c r="E82" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="F82" t="s">
         <v>768</v>
@@ -5753,7 +5190,7 @@
         <v>770</v>
       </c>
       <c r="I82" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
@@ -5770,7 +5207,7 @@
         <v>767</v>
       </c>
       <c r="E83" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F83" t="s">
         <v>779</v>
@@ -5782,7 +5219,7 @@
         <v>781</v>
       </c>
       <c r="I83" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
@@ -5799,7 +5236,7 @@
         <v>790</v>
       </c>
       <c r="E84" t="s">
-        <v>936</v>
+        <v>810</v>
       </c>
       <c r="F84" t="s">
         <v>791</v>
@@ -5811,11 +5248,11 @@
         <v>793</v>
       </c>
       <c r="I84" t="s">
-        <v>954</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J84">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I84">
     <sortCondition ref="I2:I84"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5827,18 +5264,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9CB9AB-B82E-467E-AFD4-21E1100D095F}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.07421875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.69140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.3828125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.53515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5870,1406 +5307,1406 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B5" t="s">
+        <v>806</v>
+      </c>
+      <c r="C5" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="A6" t="s">
+        <v>807</v>
+      </c>
+      <c r="B6" t="s">
+        <v>806</v>
+      </c>
+      <c r="C6" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>807</v>
+      </c>
+      <c r="B7" t="s">
+        <v>806</v>
+      </c>
+      <c r="C7" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="A8" t="s">
+        <v>807</v>
+      </c>
+      <c r="B8" t="s">
+        <v>806</v>
+      </c>
+      <c r="C8" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>272</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" t="s">
+        <v>804</v>
+      </c>
+      <c r="C9" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" t="s">
+        <v>807</v>
+      </c>
+      <c r="B10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C10" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" t="s">
+        <v>807</v>
+      </c>
+      <c r="B11" t="s">
+        <v>806</v>
+      </c>
+      <c r="C11" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="A12" t="s">
+        <v>807</v>
+      </c>
+      <c r="B12" t="s">
+        <v>806</v>
+      </c>
+      <c r="C12" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="A13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B13" t="s">
+        <v>806</v>
+      </c>
+      <c r="C13" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="A14" t="s">
+        <v>807</v>
+      </c>
+      <c r="B14" t="s">
+        <v>806</v>
+      </c>
+      <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="A15" t="s">
+        <v>807</v>
+      </c>
+      <c r="B15" t="s">
+        <v>806</v>
+      </c>
+      <c r="C15" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>154</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="A16" t="s">
+        <v>808</v>
+      </c>
+      <c r="B16" t="s">
+        <v>806</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" t="s">
+        <v>808</v>
+      </c>
+      <c r="B17" t="s">
+        <v>806</v>
+      </c>
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="A18" t="s">
+        <v>808</v>
+      </c>
+      <c r="B18" t="s">
+        <v>806</v>
+      </c>
+      <c r="C18" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="A19" t="s">
+        <v>808</v>
+      </c>
+      <c r="B19" t="s">
+        <v>806</v>
+      </c>
+      <c r="C19" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="A20" t="s">
+        <v>808</v>
+      </c>
+      <c r="B20" t="s">
+        <v>806</v>
+      </c>
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="A21" t="s">
+        <v>808</v>
+      </c>
+      <c r="B21" t="s">
+        <v>806</v>
+      </c>
+      <c r="C21" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>160</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>161</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>162</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="A22" t="s">
+        <v>807</v>
+      </c>
+      <c r="B22" t="s">
+        <v>806</v>
+      </c>
+      <c r="C22" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>196</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" t="s">
         <v>197</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="A23" t="s">
+        <v>807</v>
+      </c>
+      <c r="B23" t="s">
+        <v>806</v>
+      </c>
+      <c r="C23" t="s">
         <v>200</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>201</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" t="s">
         <v>203</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" t="s">
         <v>204</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" t="s">
+        <v>805</v>
+      </c>
+      <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" t="s">
+        <v>805</v>
+      </c>
+      <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" t="s">
+        <v>805</v>
+      </c>
+      <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" t="s">
+        <v>805</v>
+      </c>
+      <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" t="s">
+        <v>805</v>
+      </c>
+      <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" t="s">
+        <v>805</v>
+      </c>
+      <c r="C29" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="A30" t="s">
+        <v>809</v>
+      </c>
+      <c r="B30" t="s">
+        <v>805</v>
+      </c>
+      <c r="C30" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
         <v>172</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" t="s">
         <v>173</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" t="s">
         <v>174</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="A31" t="s">
+        <v>809</v>
+      </c>
+      <c r="B31" t="s">
+        <v>805</v>
+      </c>
+      <c r="C31" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>177</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" t="s">
         <v>179</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="A32" t="s">
+        <v>809</v>
+      </c>
+      <c r="B32" t="s">
+        <v>805</v>
+      </c>
+      <c r="C32" t="s">
         <v>182</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>183</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" t="s">
         <v>184</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" t="s">
         <v>186</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="6" t="s">
+      <c r="A33" t="s">
         <v>236</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B33" t="s">
+        <v>804</v>
+      </c>
+      <c r="C33" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>189</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" t="s">
         <v>191</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" t="s">
         <v>192</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="6" t="s">
+      <c r="A34" t="s">
         <v>236</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" t="s">
+        <v>804</v>
+      </c>
+      <c r="C34" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" t="s">
         <v>240</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" t="s">
         <v>241</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" t="s">
         <v>236</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" t="s">
+        <v>804</v>
+      </c>
+      <c r="C35" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" t="s">
         <v>244</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" t="s">
         <v>245</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" t="s">
         <v>246</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" t="s">
         <v>247</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="6" t="s">
+      <c r="A36" t="s">
         <v>236</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" t="s">
+        <v>804</v>
+      </c>
+      <c r="C36" t="s">
         <v>249</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" t="s">
         <v>250</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" t="s">
         <v>251</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" t="s">
         <v>252</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" t="s">
         <v>253</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="6" t="s">
+      <c r="A37" t="s">
         <v>236</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" t="s">
+        <v>804</v>
+      </c>
+      <c r="C37" t="s">
         <v>255</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" t="s">
         <v>256</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" t="s">
         <v>257</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" t="s">
         <v>258</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="6" t="s">
+      <c r="A38" t="s">
         <v>236</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" t="s">
+        <v>804</v>
+      </c>
+      <c r="C38" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" t="s">
         <v>262</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" t="s">
         <v>263</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" t="s">
         <v>264</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="6" t="s">
+      <c r="A39" t="s">
         <v>236</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="B39" t="s">
+        <v>804</v>
+      </c>
+      <c r="C39" t="s">
         <v>266</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" t="s">
         <v>267</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" t="s">
         <v>268</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" t="s">
         <v>269</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" t="s">
         <v>270</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="7" t="s">
+      <c r="A40" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C40" s="7" t="s">
+      <c r="B40" t="s">
+        <v>804</v>
+      </c>
+      <c r="C40" t="s">
         <v>273</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" t="s">
         <v>274</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" t="s">
         <v>275</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" t="s">
         <v>276</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" t="s">
         <v>277</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
+      <c r="A41" t="s">
         <v>272</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" t="s">
+        <v>804</v>
+      </c>
+      <c r="C41" t="s">
         <v>279</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" t="s">
         <v>280</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" t="s">
         <v>281</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" t="s">
         <v>282</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" t="s">
         <v>283</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="A42" t="s">
+        <v>809</v>
+      </c>
+      <c r="B42" t="s">
+        <v>805</v>
+      </c>
+      <c r="C42" t="s">
         <v>285</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" t="s">
         <v>286</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" t="s">
         <v>287</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" t="s">
         <v>288</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" t="s">
         <v>289</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="9" t="s">
+      <c r="A43" t="s">
         <v>303</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="B43" t="s">
+        <v>803</v>
+      </c>
+      <c r="C43" t="s">
         <v>304</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" t="s">
         <v>305</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" t="s">
         <v>307</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" t="s">
         <v>308</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="9" t="s">
+      <c r="A44" t="s">
         <v>303</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="B44" t="s">
+        <v>803</v>
+      </c>
+      <c r="C44" t="s">
         <v>310</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" t="s">
         <v>311</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" t="s">
         <v>312</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" t="s">
         <v>313</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" t="s">
         <v>314</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="9" t="s">
+      <c r="A45" t="s">
         <v>303</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="B45" t="s">
+        <v>803</v>
+      </c>
+      <c r="C45" t="s">
         <v>316</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" t="s">
         <v>317</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" t="s">
         <v>318</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" t="s">
         <v>319</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" t="s">
         <v>320</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="9" t="s">
+      <c r="A46" t="s">
         <v>303</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="B46" t="s">
+        <v>803</v>
+      </c>
+      <c r="C46" t="s">
         <v>322</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" t="s">
         <v>323</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" t="s">
         <v>324</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" t="s">
         <v>325</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" t="s">
         <v>326</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="9" t="s">
+      <c r="A47" t="s">
         <v>303</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="B47" t="s">
+        <v>803</v>
+      </c>
+      <c r="C47" t="s">
         <v>328</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" t="s">
         <v>329</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" t="s">
         <v>318</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" t="s">
         <v>330</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" t="s">
         <v>331</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="5" t="s">
+      <c r="A48" t="s">
         <v>206</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" t="s">
+        <v>803</v>
+      </c>
+      <c r="C48" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>165</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" t="s">
         <v>167</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" t="s">
         <v>168</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="5" t="s">
+      <c r="A49" t="s">
         <v>206</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="B49" t="s">
+        <v>803</v>
+      </c>
+      <c r="C49" t="s">
         <v>207</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" t="s">
         <v>208</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" t="s">
         <v>209</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" t="s">
         <v>210</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="5" t="s">
+      <c r="A50" t="s">
         <v>206</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C50" s="5" t="s">
+      <c r="B50" t="s">
+        <v>803</v>
+      </c>
+      <c r="C50" t="s">
         <v>213</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" t="s">
         <v>214</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" t="s">
         <v>215</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" t="s">
         <v>216</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" t="s">
         <v>217</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="5" t="s">
+      <c r="A51" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="B51" t="s">
+        <v>803</v>
+      </c>
+      <c r="C51" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" t="s">
         <v>220</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" t="s">
         <v>221</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" t="s">
         <v>222</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="5" t="s">
+      <c r="A52" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="B52" t="s">
+        <v>803</v>
+      </c>
+      <c r="C52" t="s">
         <v>224</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" t="s">
         <v>225</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" t="s">
         <v>227</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" t="s">
         <v>228</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="5" t="s">
+      <c r="A53" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B53" t="s">
+        <v>803</v>
+      </c>
+      <c r="C53" t="s">
         <v>230</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" t="s">
         <v>231</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" t="s">
         <v>232</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" t="s">
         <v>233</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" t="s">
         <v>234</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="5" t="s">
+      <c r="A54" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="B54" t="s">
+        <v>803</v>
+      </c>
+      <c r="C54" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" t="s">
         <v>292</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" t="s">
         <v>293</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" t="s">
         <v>294</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" t="s">
         <v>295</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="5" t="s">
+      <c r="A55" t="s">
         <v>206</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="B55" t="s">
+        <v>803</v>
+      </c>
+      <c r="C55" t="s">
         <v>297</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" t="s">
         <v>298</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" t="s">
         <v>299</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" t="s">
         <v>300</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" t="s">
         <v>301</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7280,603 +6717,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DDB026-FBFD-4B4C-9E66-9EFE84E94286}">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="24.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="150.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.53515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>842</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
-        <v>842</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>815</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>917</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>922</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>923</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>929</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>930</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>932</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>